--- a/Input/NLGI_Mednet/benefits.xlsx
+++ b/Input/NLGI_Mednet/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">AED 10,00,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide including USA</t>
+    <t xml:space="preserve">Worldwide Including USA</t>
   </si>
   <si>
     <t xml:space="preserve">Mednet Gold</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">Covered up to AED 150,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait unless evidence of COC is provided.</t>
   </si>
   <si>
     <t xml:space="preserve">Private Room</t>
@@ -293,6 +293,9 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">Worldwide including USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consultations- 20% up to max AED 50
 Outpatient and Pharmacy- 0%/ 10%/ 20%</t>
   </si>
@@ -348,7 +351,7 @@
     <t xml:space="preserve">Plan 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Silk Road</t>
+    <t xml:space="preserve">Mednet Silk Road (Out Patient treatment restricted to Clinics)</t>
   </si>
 </sst>
 </file>
@@ -359,11 +362,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -384,12 +388,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,11 +463,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:BJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH2" activeCellId="0" sqref="BH2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +503,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="40.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="40.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="34.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="22" style="0" width="11.52"/>
@@ -697,7 +713,7 @@
       <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -801,51 +817,51 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="4" t="n">
-        <v>45119</v>
+        <v>90</v>
+      </c>
+      <c r="BE2" s="5" t="n">
+        <v>45266</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BG2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BI2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -853,8 +869,8 @@
       <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
+      <c r="D3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
@@ -863,7 +879,7 @@
       <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -967,36 +983,36 @@
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>60</v>
@@ -1004,8 +1020,8 @@
       <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>99</v>
+      <c r="D4" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
@@ -1014,7 +1030,7 @@
       <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1118,36 +1134,36 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
@@ -1155,8 +1171,8 @@
       <c r="C5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+      <c r="D5" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
@@ -1165,7 +1181,7 @@
       <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1269,33 +1285,33 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>60</v>
@@ -1303,8 +1319,8 @@
       <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>104</v>
+      <c r="D6" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
@@ -1313,7 +1329,7 @@
       <c r="G6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1417,33 +1433,33 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
@@ -1451,8 +1467,8 @@
       <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>106</v>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
@@ -1461,7 +1477,7 @@
       <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1565,28 +1581,28 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
